--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-budget-type.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-organization-budget-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1114,7 +1114,7 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>82</v>
@@ -1322,7 +1322,7 @@
         <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>106</v>
